--- a/data/trans_camb/P16A01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A01-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16A01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A01-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,09; 3,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,77; 7,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,79; -1,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,62; 4,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,48; 8,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,99; 12,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,73; 2,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,98; 6,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,16; 5,35</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>181,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,63%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-82,75; 132,55</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-63,01; 180,44</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 8,9</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,39; 562,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,08; 894,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,14; 94,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,61; 164,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,76; 163,39</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,59</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,94; 9,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,95; 3,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 4,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,44; 8,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,08; 7,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 3,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,61; 8,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 4,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 3,29</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>130,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>117,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>126,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,14%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,71; 261,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,43; 92,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,0; 135,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,61; 286,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,22; 277,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,57; 115,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>67,22; 213,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,99; 124,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,81; 87,74</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,77; 2,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 3,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,59; 1,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 3,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 4,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,66; 5,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 2,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 3,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 2,71</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,24%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,25%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,02%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,26%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,57; 31,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,86; 47,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,23; 24,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,7; 84,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,6; 89,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,95; 109,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,18; 39,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,12; 50,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,14; 43,95</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,91</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,81; 7,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,91; 2,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,37; 2,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,51; 4,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,13; 3,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,97; 1,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 4,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,63; 2,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,05; 1,05</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,88%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,7%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,6%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,19%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,55%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,46%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,75; 127,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,33; 44,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,02; 42,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,15; 82,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,68; 63,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,73; 22,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,22; 84,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,34; 39,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,89; 17,84</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 5,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 4,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 3,07</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 3,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 3,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 2,65</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 3,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 3,14</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 2,15</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,96%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,33%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,27%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,2; 100,37</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,31; 69,1</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,03; 51,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,27; 45,03</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,05; 49,29</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,32; 38,44</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,87; 55,79</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,37; 45,56</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,32; 31,05</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,09; 3,9</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; 2,15</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 1,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,5; 3,2</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 3,27</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 2,26</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,27; 3,09</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 2,24</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 1,45</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,25%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,68%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,05%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,42%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,49; 62,05</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,15; 33,99</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,13; 23,18</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,16; 54,85</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,7; 56,66</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,34; 39,46</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,75; 49,18</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,72; 35,94</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,29; 23,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A01-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,5</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,16</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>1,46</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 3,81</t>
+          <t>1,89; 7,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 7,0</t>
+          <t>-2,1; 2,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,79; -1,96</t>
+          <t>-1,8; 3,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 4,83</t>
+          <t>2,02; 7,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 8,6</t>
+          <t>1,69; 6,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 12,81</t>
+          <t>0,11; 4,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 2,6</t>
+          <t>2,46; 6,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 6,01</t>
+          <t>0,79; 4,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 5,35</t>
+          <t>-0,23; 2,91</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-37,24%</t>
+          <t>87,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-88,82%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,66%</t>
+          <t>109,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>68,39%</t>
+          <t>109,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>181,74%</t>
+          <t>57,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-25,65%</t>
+          <t>96,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,09%</t>
+          <t>53,33%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>31,06%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-82,75; 132,55</t>
+          <t>25,04; 177,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-63,01; 180,44</t>
+          <t>-32,2; 65,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 8,9</t>
+          <t>-27,93; 74,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,3; 241,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,39; 562,1</t>
+          <t>28,78; 221,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,08; 894,05</t>
+          <t>0,67; 142,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-71,14; 94,14</t>
+          <t>45,92; 163,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,61; 164,29</t>
+          <t>13,4; 111,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-39,76; 163,39</t>
+          <t>-4,56; 75,26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>0,46</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 9,33</t>
+          <t>-2,77; 2,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 3,31</t>
+          <t>-2,03; 3,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 4,99</t>
+          <t>-5,59; 1,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 8,16</t>
+          <t>-0,83; 3,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 7,94</t>
+          <t>-0,14; 4,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,25</t>
+          <t>0,77; 5,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,61; 8,03</t>
+          <t>-1,16; 2,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,74</t>
+          <t>-0,29; 3,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 3,29</t>
+          <t>-2,42; 2,37</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>123,43%</t>
+          <t>-6,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>40,65%</t>
+          <t>-21,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>130,88%</t>
+          <t>26,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>117,1%</t>
+          <t>37,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,04%</t>
+          <t>48,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>126,84%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>59,57%</t>
+          <t>21,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>35,14%</t>
+          <t>6,63%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,71; 261,44</t>
+          <t>-31,57; 31,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,43; 92,45</t>
+          <t>-20,86; 47,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 135,9</t>
+          <t>-60,28; 14,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>44,61; 286,51</t>
+          <t>-11,7; 84,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,22; 277,76</t>
+          <t>-2,6; 89,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 115,6</t>
+          <t>10,06; 111,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>67,22; 213,56</t>
+          <t>-15,18; 39,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,99; 124,35</t>
+          <t>-4,12; 50,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 87,74</t>
+          <t>-29,32; 38,19</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>-1,4</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 2,0</t>
+          <t>0,81; 7,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 3,08</t>
+          <t>-2,91; 2,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 1,62</t>
+          <t>-3,47; 2,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 3,93</t>
+          <t>-1,51; 4,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 4,54</t>
+          <t>-2,13; 3,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 5,19</t>
+          <t>-5,54; 0,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,31</t>
+          <t>0,47; 4,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,11</t>
+          <t>-1,63; 2,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 2,71</t>
+          <t>-3,83; 0,59</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,24%</t>
+          <t>56,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>-2,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-9,25%</t>
+          <t>-7,34%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>26,86%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>37,54%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>46,63%</t>
+          <t>-30,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>38,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>-20,76%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,57; 31,79</t>
+          <t>8,75; 127,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,86; 47,49</t>
+          <t>-34,33; 44,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-39,23; 24,73</t>
+          <t>-39,86; 43,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 84,38</t>
+          <t>-19,15; 82,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 89,01</t>
+          <t>-27,68; 63,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,95; 109,28</t>
+          <t>-66,93; 7,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,18; 39,09</t>
+          <t>6,22; 84,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 50,85</t>
+          <t>-21,34; 39,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 43,95</t>
+          <t>-50,74; 9,89</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>0,34</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,81; 7,37</t>
+          <t>0,34; 5,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,63</t>
+          <t>-0,74; 4,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 2,1</t>
+          <t>-1,84; 3,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 4,02</t>
+          <t>-1,5; 3,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 3,19</t>
+          <t>-1,53; 3,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 1,28</t>
+          <t>-2,74; 2,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,79</t>
+          <t>0,2; 3,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,19</t>
+          <t>-0,4; 3,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 1,05</t>
+          <t>-1,36; 2,17</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>56,88%</t>
+          <t>41,96%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-2,7%</t>
+          <t>24,33%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-7,6%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-18,19%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>38,55%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-13,46%</t>
+          <t>4,44%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,75; 127,35</t>
+          <t>3,2; 100,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,33; 44,73</t>
+          <t>-9,31; 69,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-40,02; 42,38</t>
+          <t>-22,64; 56,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,15; 82,98</t>
+          <t>-16,27; 45,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 63,2</t>
+          <t>-16,05; 49,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-50,73; 22,74</t>
+          <t>-27,79; 31,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,22; 84,65</t>
+          <t>1,87; 55,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 39,34</t>
+          <t>-4,37; 45,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-39,89; 17,84</t>
+          <t>-15,8; 31,05</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,22</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,34; 5,96</t>
+          <t>1,09; 3,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 4,04</t>
+          <t>-0,53; 2,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 3,07</t>
+          <t>-1,99; 1,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,29</t>
+          <t>0,5; 3,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 3,44</t>
+          <t>0,62; 3,27</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 2,65</t>
+          <t>-0,87; 1,96</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,86</t>
+          <t>1,27; 3,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 3,14</t>
+          <t>0,48; 2,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 2,15</t>
+          <t>-0,85; 1,24</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>41,96%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>-4,5%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>29,68%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>33,05%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>3,28%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3,2; 100,37</t>
+          <t>14,49; 62,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 69,1</t>
+          <t>-7,15; 33,99</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-24,03; 51,48</t>
+          <t>-27,09; 17,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 45,03</t>
+          <t>7,16; 54,85</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 49,29</t>
+          <t>8,7; 56,66</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 38,44</t>
+          <t>-12,57; 33,55</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>1,87; 55,79</t>
+          <t>17,75; 49,18</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 45,56</t>
+          <t>6,72; 35,94</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-14,32; 31,05</t>
+          <t>-11,98; 19,69</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,52</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,77</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>1,1</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>2,2</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>1,35</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,09; 3,9</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,53; 2,15</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-1,29; 1,46</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,5; 3,2</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 3,27</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,22; 2,26</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>1,27; 3,09</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 2,24</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-0,34; 1,45</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>36,48%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>11,15%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-0,25%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>29,52%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>29,68%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>17,07%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>33,05%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>20,24%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>8,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>14,49; 62,05</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-7,15; 33,99</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-17,13; 23,18</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>7,16; 54,85</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>8,7; 56,66</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-3,34; 39,46</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>17,75; 49,18</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>6,72; 35,94</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-4,29; 23,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16A01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A01-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 7,56</t>
+          <t>1,87; 7,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 2,79</t>
+          <t>-1,78; 3,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 3,03</t>
+          <t>-1,85; 3,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,02; 7,29</t>
+          <t>2,15; 7,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 6,98</t>
+          <t>1,97; 7,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,34</t>
+          <t>0,21; 4,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,34</t>
+          <t>2,57; 6,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,25</t>
+          <t>0,69; 4,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 2,91</t>
+          <t>-0,21; 3,04</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,04; 177,11</t>
+          <t>30,04; 193,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,2; 65,74</t>
+          <t>-28,0; 82,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,93; 74,31</t>
+          <t>-29,66; 76,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,3; 241,44</t>
+          <t>41,87; 238,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,78; 221,2</t>
+          <t>37,98; 241,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 142,66</t>
+          <t>2,28; 144,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>45,92; 163,2</t>
+          <t>48,05; 167,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,4; 111,54</t>
+          <t>12,82; 110,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 75,26</t>
+          <t>-4,11; 78,92</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 2,0</t>
+          <t>-3,21; 1,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 3,08</t>
+          <t>-2,11; 2,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 1,04</t>
+          <t>-5,4; 1,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 3,93</t>
+          <t>-1,07; 4,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 4,54</t>
+          <t>-0,13; 4,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 5,26</t>
+          <t>0,43; 5,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,31</t>
+          <t>-1,14; 2,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,11</t>
+          <t>-0,26; 3,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 2,37</t>
+          <t>-2,38; 2,39</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,57; 31,79</t>
+          <t>-34,4; 29,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,86; 47,49</t>
+          <t>-23,34; 46,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,28; 14,63</t>
+          <t>-61,33; 15,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 84,38</t>
+          <t>-14,98; 80,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 89,01</t>
+          <t>-4,0; 99,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,06; 111,48</t>
+          <t>6,25; 110,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,18; 39,09</t>
+          <t>-14,95; 39,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 50,85</t>
+          <t>-3,2; 54,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,32; 38,19</t>
+          <t>-29,9; 39,02</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 7,37</t>
+          <t>0,82; 7,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,63</t>
+          <t>-2,89; 2,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 2,3</t>
+          <t>-3,23; 2,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 4,02</t>
+          <t>-1,33; 4,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 3,19</t>
+          <t>-2,11; 3,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 0,55</t>
+          <t>-5,47; 0,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,79</t>
+          <t>0,31; 4,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,19</t>
+          <t>-1,79; 2,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 0,59</t>
+          <t>-4,17; 0,36</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,75; 127,35</t>
+          <t>9,09; 124,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,33; 44,73</t>
+          <t>-34,61; 46,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-39,86; 43,3</t>
+          <t>-39,66; 47,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,15; 82,98</t>
+          <t>-17,1; 80,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 63,2</t>
+          <t>-27,53; 62,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,93; 7,75</t>
+          <t>-72,68; 5,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,22; 84,65</t>
+          <t>5,15; 79,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 39,34</t>
+          <t>-22,19; 34,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-50,74; 9,89</t>
+          <t>-52,03; 7,43</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 5,96</t>
+          <t>0,3; 5,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 4,04</t>
+          <t>-0,47; 4,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 3,49</t>
+          <t>-1,56; 3,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,29</t>
+          <t>-1,64; 3,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 3,44</t>
+          <t>-1,39; 3,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 2,22</t>
+          <t>-2,35; 2,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,86</t>
+          <t>-0,07; 3,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 3,14</t>
+          <t>-0,5; 3,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,17</t>
+          <t>-1,4; 2,14</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,2; 100,37</t>
+          <t>2,18; 88,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 69,1</t>
+          <t>-5,31; 68,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,64; 56,22</t>
+          <t>-20,21; 55,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 45,03</t>
+          <t>-17,05; 47,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 49,29</t>
+          <t>-14,49; 51,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,79; 31,46</t>
+          <t>-25,17; 34,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,87; 55,79</t>
+          <t>-1,0; 50,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 45,56</t>
+          <t>-5,98; 43,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 31,05</t>
+          <t>-16,53; 32,34</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,9</t>
+          <t>1,19; 3,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 2,15</t>
+          <t>-0,51; 2,22</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,12</t>
+          <t>-2,0; 1,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,2</t>
+          <t>0,7; 3,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,27</t>
+          <t>0,47; 3,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,96</t>
+          <t>-0,99; 2,04</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,09</t>
+          <t>1,29; 3,08</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,24</t>
+          <t>0,47; 2,22</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,24</t>
+          <t>-0,81; 1,33</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>14,49; 62,05</t>
+          <t>15,76; 61,9</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 33,99</t>
+          <t>-6,95; 36,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-27,09; 17,39</t>
+          <t>-27,63; 17,16</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>7,16; 54,85</t>
+          <t>9,78; 56,37</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>8,7; 56,66</t>
+          <t>6,59; 54,88</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 33,55</t>
+          <t>-13,07; 34,57</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>17,75; 49,18</t>
+          <t>17,82; 48,01</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>6,72; 35,94</t>
+          <t>6,53; 35,43</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 19,69</t>
+          <t>-11,31; 21,44</t>
         </is>
       </c>
     </row>
